--- a/Examples/Database.xlsx
+++ b/Examples/Database.xlsx
@@ -1,44 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <x:workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Solutions\my-openxml-practice\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D711C6C-8222-442F-9727-7EFB0F012738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="users" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10260C0-E6A7-4C53-ABE5-8A22C5E17DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="users" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>Oleg</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Place</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oleg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>???</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,32 +360,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:dimension ref="A1:B2"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="C5" sqref="C5"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" t="str">
+        <x:v>Here</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</x:worksheet>
 </file>
--- a/Examples/Database.xlsx
+++ b/Examples/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Solutions\my-openxml-practice\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10260C0-E6A7-4C53-ABE5-8A22C5E17DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDF7A02-8A5B-4F63-9446-7CEDF3000F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -36,7 +36,7 @@
     <x:t>Oleg</x:t>
   </x:si>
   <x:si>
-    <x:t>???</x:t>
+    <x:t>Marina</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:dimension ref="A1:B2"/>
+  <x:dimension ref="A1:B3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C5" sqref="C5"/>
+      <x:selection activeCell="B7" sqref="B7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -385,6 +385,14 @@
         <x:v>Here</x:v>
       </x:c>
     </x:row>
+    <x:row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" t="str">
+        <x:v>Elswere</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>
